--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -809,15 +809,6 @@
   </si>
   <si>
     <t>1. Отобразилась вкладка для создания новой заявки
-2. В поле "Тема" отобразились спецсимволы
-3. В поле "Исполнитель" отобразилась ФИО исполнителя
-4. В поле "Дата" отобразилась указанная дата
-5. В поле "Время" отобразилось указанное время
-6. В поле "Описание" отобразилось описание заявки
-7. Отобразилось уведомление "Что-то пошло не так. Попробуйте позднее"</t>
-  </si>
-  <si>
-    <t>1. Отобразилась вкладка для создания новой заявки
 2. В поле "Тема" отобразилась тема заявки
 3. В поле "Исполнитель" отобразилась ФИО исполнителя
 4. В поле "Дата" отобразилась указанная дата
@@ -1091,6 +1082,15 @@
   </si>
   <si>
     <t>Не пройден                                    Причина: элемент не кликабелен.</t>
+  </si>
+  <si>
+    <t>1. Отобразилась вкладка для создания новой заявки
+2. В поле "Тема" отобразились спецсимволы
+3. В поле "Исполнитель" отобразилась ФИО исполнителя
+4. В поле "Дата" отобразилась указанная дата
+5. В поле "Время" отобразилось указанное время
+6. В поле "Описание" отобразилось описание заявки
+7. Заявка не отобразилась в списке заявок</t>
   </si>
 </sst>
 </file>
@@ -2163,6 +2163,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2195,45 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2544,7 +2544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2558,8 +2558,8 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2571,7 +2571,7 @@
     <col min="5" max="5" width="34.5703125" style="17" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" style="63" customWidth="1"/>
     <col min="7" max="7" width="56.5703125" style="63" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="110" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -2597,7 +2597,7 @@
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="98" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2623,13 +2623,13 @@
       <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="110"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="111" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -2647,13 +2647,13 @@
       <c r="G3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="111"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="12" t="s">
         <v>121</v>
       </c>
@@ -2669,13 +2669,13 @@
       <c r="G4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="112"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="12" t="s">
         <v>122</v>
       </c>
@@ -2691,13 +2691,13 @@
       <c r="G5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="112"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="12" t="s">
         <v>123</v>
       </c>
@@ -2713,13 +2713,13 @@
       <c r="G6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="112"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="12" t="s">
         <v>124</v>
       </c>
@@ -2735,13 +2735,13 @@
       <c r="G7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="112"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="12" t="s">
         <v>125</v>
       </c>
@@ -2752,20 +2752,20 @@
         <v>10</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="112"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
@@ -2774,18 +2774,18 @@
         <v>10</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="112"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87">
         <v>9</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="28" t="s">
         <v>15</v>
       </c>
@@ -2801,13 +2801,13 @@
       <c r="G10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="113"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="119" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="83" t="s">
@@ -2825,13 +2825,13 @@
       <c r="G11" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="40" t="s">
         <v>30</v>
       </c>
@@ -2847,15 +2847,15 @@
       <c r="G12" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>5</v>
@@ -2864,20 +2864,20 @@
         <v>20</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="116"/>
+        <v>200</v>
+      </c>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="107"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>5</v>
@@ -2886,20 +2886,20 @@
         <v>20</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14" s="115"/>
+        <v>201</v>
+      </c>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>14</v>
       </c>
-      <c r="B15" s="108"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>5</v>
@@ -2908,18 +2908,18 @@
         <v>20</v>
       </c>
       <c r="F15" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G15" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="117"/>
+        <v>202</v>
+      </c>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>15</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="116" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="51" t="s">
@@ -2937,13 +2937,13 @@
       <c r="G16" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="116"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="47">
         <v>16</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="43" t="s">
         <v>131</v>
       </c>
@@ -2959,13 +2959,13 @@
       <c r="G17" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="115"/>
+      <c r="H17" s="104"/>
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="46">
         <v>17</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="43" t="s">
         <v>132</v>
       </c>
@@ -2981,13 +2981,13 @@
       <c r="G18" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="115"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="47">
         <v>18</v>
       </c>
-      <c r="B19" s="104"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="43" t="s">
         <v>133</v>
       </c>
@@ -3003,13 +3003,13 @@
       <c r="G19" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="115"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="46">
         <v>19</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="51" t="s">
         <v>143</v>
       </c>
@@ -3025,13 +3025,13 @@
       <c r="G20" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="116"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
         <v>20</v>
       </c>
-      <c r="B21" s="104"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="51" t="s">
         <v>126</v>
       </c>
@@ -3047,15 +3047,15 @@
       <c r="G21" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="116"/>
+      <c r="H21" s="105"/>
     </row>
     <row r="22" spans="1:8" ht="108" x14ac:dyDescent="0.2">
       <c r="A22" s="46">
         <v>21</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>5</v>
@@ -3064,18 +3064,18 @@
         <v>134</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="116"/>
+        <v>176</v>
+      </c>
+      <c r="H22" s="105"/>
     </row>
     <row r="23" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A23" s="47">
         <v>22</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="51" t="s">
         <v>148</v>
       </c>
@@ -3091,13 +3091,13 @@
       <c r="G23" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="116"/>
-    </row>
-    <row r="24" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="H23" s="105"/>
+    </row>
+    <row r="24" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A24" s="46">
         <v>23</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="51" t="s">
         <v>162</v>
       </c>
@@ -3111,17 +3111,17 @@
         <v>166</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="116" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="H24" s="105" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="47">
         <v>24</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="51" t="s">
         <v>149</v>
       </c>
@@ -3132,22 +3132,22 @@
         <v>134</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="116" t="s">
-        <v>218</v>
+      <c r="H25" s="105" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="46">
         <v>25</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>5</v>
@@ -3156,20 +3156,20 @@
         <v>134</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="116" t="s">
-        <v>218</v>
+        <v>169</v>
+      </c>
+      <c r="H26" s="105" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A27" s="47">
         <v>26</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="51" t="s">
         <v>150</v>
       </c>
@@ -3180,18 +3180,18 @@
         <v>134</v>
       </c>
       <c r="F27" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="116"/>
+      <c r="H27" s="105"/>
     </row>
     <row r="28" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A28" s="46">
         <v>27</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="51" t="s">
         <v>151</v>
       </c>
@@ -3202,18 +3202,18 @@
         <v>134</v>
       </c>
       <c r="F28" s="80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G28" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="116"/>
+      <c r="H28" s="105"/>
     </row>
     <row r="29" spans="1:8" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>28</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="51" t="s">
         <v>158</v>
       </c>
@@ -3229,15 +3229,15 @@
       <c r="G29" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="118" t="s">
-        <v>219</v>
+      <c r="H29" s="107" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A30" s="46">
         <v>29</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="51" t="s">
         <v>152</v>
       </c>
@@ -3253,13 +3253,13 @@
       <c r="G30" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="116"/>
+      <c r="H30" s="105"/>
     </row>
     <row r="31" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="47">
         <v>30</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="51" t="s">
         <v>163</v>
       </c>
@@ -3270,18 +3270,18 @@
         <v>134</v>
       </c>
       <c r="F31" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="116"/>
+        <v>167</v>
+      </c>
+      <c r="H31" s="105"/>
     </row>
     <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
         <v>31</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="43" t="s">
         <v>127</v>
       </c>
@@ -3292,18 +3292,18 @@
         <v>134</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="115"/>
+        <v>188</v>
+      </c>
+      <c r="H32" s="104"/>
     </row>
     <row r="33" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="47">
         <v>32</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="43" t="s">
         <v>128</v>
       </c>
@@ -3314,20 +3314,20 @@
         <v>134</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="G33" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="115"/>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A34" s="46">
         <v>33</v>
       </c>
-      <c r="B34" s="104"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>5</v>
@@ -3336,20 +3336,20 @@
         <v>134</v>
       </c>
       <c r="F34" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="115"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="47">
         <v>34</v>
       </c>
-      <c r="B35" s="104"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>5</v>
@@ -3358,20 +3358,20 @@
         <v>134</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35" s="115"/>
+        <v>181</v>
+      </c>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="46">
         <v>35</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>5</v>
@@ -3380,18 +3380,18 @@
         <v>134</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="H36" s="115"/>
+        <v>182</v>
+      </c>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" spans="1:8" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48">
         <v>36</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="44" t="s">
         <v>129</v>
       </c>
@@ -3402,20 +3402,20 @@
         <v>134</v>
       </c>
       <c r="F37" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="G37" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="118" t="s">
-        <v>219</v>
+      <c r="H37" s="107" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="47">
         <v>37</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="114" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -3433,13 +3433,13 @@
       <c r="G38" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="119"/>
+      <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A39" s="47">
         <v>38</v>
       </c>
-      <c r="B39" s="104"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="68" t="s">
         <v>36</v>
       </c>
@@ -3455,13 +3455,13 @@
       <c r="G39" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="115"/>
+      <c r="H39" s="104"/>
     </row>
     <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="46">
         <v>39</v>
       </c>
-      <c r="B40" s="104"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="40" t="s">
         <v>37</v>
       </c>
@@ -3477,13 +3477,13 @@
       <c r="G40" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="115"/>
+      <c r="H40" s="104"/>
     </row>
     <row r="41" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="47">
         <v>40</v>
       </c>
-      <c r="B41" s="104"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="40" t="s">
         <v>38</v>
       </c>
@@ -3499,13 +3499,13 @@
       <c r="G41" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="115"/>
+      <c r="H41" s="104"/>
     </row>
     <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A42" s="46">
         <v>41</v>
       </c>
-      <c r="B42" s="104"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="40" t="s">
         <v>39</v>
       </c>
@@ -3521,13 +3521,13 @@
       <c r="G42" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="115"/>
+      <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="47">
         <v>42</v>
       </c>
-      <c r="B43" s="104"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="40" t="s">
         <v>40</v>
       </c>
@@ -3543,13 +3543,13 @@
       <c r="G43" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="115"/>
+      <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A44" s="46">
         <v>43</v>
       </c>
-      <c r="B44" s="104"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="40" t="s">
         <v>41</v>
       </c>
@@ -3565,13 +3565,13 @@
       <c r="G44" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="115"/>
+      <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A45" s="47">
         <v>44</v>
       </c>
-      <c r="B45" s="104"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="40" t="s">
         <v>42</v>
       </c>
@@ -3587,13 +3587,13 @@
       <c r="G45" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="115"/>
+      <c r="H45" s="104"/>
     </row>
     <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A46" s="46">
         <v>45</v>
       </c>
-      <c r="B46" s="104"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="40" t="s">
         <v>43</v>
       </c>
@@ -3609,13 +3609,13 @@
       <c r="G46" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="115"/>
+      <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A47" s="47">
         <v>46</v>
       </c>
-      <c r="B47" s="104"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="40" t="s">
         <v>44</v>
       </c>
@@ -3631,13 +3631,13 @@
       <c r="G47" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="115"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A48" s="46">
         <v>47</v>
       </c>
-      <c r="B48" s="104"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="40" t="s">
         <v>45</v>
       </c>
@@ -3653,13 +3653,13 @@
       <c r="G48" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="115"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48">
         <v>48</v>
       </c>
-      <c r="B49" s="102"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="39" t="s">
         <v>46</v>
       </c>
@@ -3675,13 +3675,13 @@
       <c r="G49" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="115"/>
+      <c r="H49" s="104"/>
     </row>
     <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A50" s="47">
         <v>49</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="38" t="s">
@@ -3699,13 +3699,13 @@
       <c r="G50" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="119"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A51" s="47">
         <v>50</v>
       </c>
-      <c r="B51" s="104"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="41" t="s">
         <v>91</v>
       </c>
@@ -3721,13 +3721,13 @@
       <c r="G51" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="115"/>
+      <c r="H51" s="104"/>
     </row>
     <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="46">
         <v>51</v>
       </c>
-      <c r="B52" s="104"/>
+      <c r="B52" s="117"/>
       <c r="C52" s="40" t="s">
         <v>92</v>
       </c>
@@ -3743,13 +3743,13 @@
       <c r="G52" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="115"/>
+      <c r="H52" s="104"/>
     </row>
     <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="47">
         <v>52</v>
       </c>
-      <c r="B53" s="104"/>
+      <c r="B53" s="117"/>
       <c r="C53" s="40" t="s">
         <v>93</v>
       </c>
@@ -3765,13 +3765,13 @@
       <c r="G53" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="115"/>
+      <c r="H53" s="104"/>
     </row>
     <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="46">
         <v>53</v>
       </c>
-      <c r="B54" s="104"/>
+      <c r="B54" s="117"/>
       <c r="C54" s="40" t="s">
         <v>72</v>
       </c>
@@ -3787,13 +3787,13 @@
       <c r="G54" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="115"/>
+      <c r="H54" s="104"/>
     </row>
     <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="47">
         <v>54</v>
       </c>
-      <c r="B55" s="104"/>
+      <c r="B55" s="117"/>
       <c r="C55" s="40" t="s">
         <v>73</v>
       </c>
@@ -3809,13 +3809,13 @@
       <c r="G55" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="115"/>
+      <c r="H55" s="104"/>
     </row>
     <row r="56" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="46">
         <v>55</v>
       </c>
-      <c r="B56" s="104"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="16" t="s">
         <v>94</v>
       </c>
@@ -3831,13 +3831,13 @@
       <c r="G56" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H56" s="115"/>
+      <c r="H56" s="104"/>
     </row>
     <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="47">
         <v>56</v>
       </c>
-      <c r="B57" s="104"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="16" t="s">
         <v>97</v>
       </c>
@@ -3853,13 +3853,13 @@
       <c r="G57" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="115"/>
+      <c r="H57" s="104"/>
     </row>
     <row r="58" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A58" s="46">
         <v>57</v>
       </c>
-      <c r="B58" s="104"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="16" t="s">
         <v>113</v>
       </c>
@@ -3875,13 +3875,13 @@
       <c r="G58" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="H58" s="115"/>
+      <c r="H58" s="104"/>
     </row>
     <row r="59" spans="1:8" ht="108" x14ac:dyDescent="0.2">
       <c r="A59" s="47">
         <v>58</v>
       </c>
-      <c r="B59" s="104"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="16" t="s">
         <v>98</v>
       </c>
@@ -3897,13 +3897,13 @@
       <c r="G59" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H59" s="115"/>
+      <c r="H59" s="104"/>
     </row>
     <row r="60" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A60" s="46">
         <v>59</v>
       </c>
-      <c r="B60" s="104"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="16" t="s">
         <v>105</v>
       </c>
@@ -3919,13 +3919,13 @@
       <c r="G60" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H60" s="115"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A61" s="47">
         <v>60</v>
       </c>
-      <c r="B61" s="104"/>
+      <c r="B61" s="117"/>
       <c r="C61" s="16" t="s">
         <v>107</v>
       </c>
@@ -3941,13 +3941,13 @@
       <c r="G61" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H61" s="115"/>
+      <c r="H61" s="104"/>
     </row>
     <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A62" s="46">
         <v>61</v>
       </c>
-      <c r="B62" s="104"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="16" t="s">
         <v>115</v>
       </c>
@@ -3963,15 +3963,15 @@
       <c r="G62" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="115" t="s">
-        <v>219</v>
+      <c r="H62" s="104" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A63" s="47">
         <v>62</v>
       </c>
-      <c r="B63" s="104"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="16" t="s">
         <v>109</v>
       </c>
@@ -3987,13 +3987,13 @@
       <c r="G63" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="115"/>
+      <c r="H63" s="104"/>
     </row>
     <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A64" s="46">
         <v>63</v>
       </c>
-      <c r="B64" s="104"/>
+      <c r="B64" s="117"/>
       <c r="C64" s="40" t="s">
         <v>95</v>
       </c>
@@ -4009,13 +4009,13 @@
       <c r="G64" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="115"/>
+      <c r="H64" s="104"/>
     </row>
     <row r="65" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48">
         <v>64</v>
       </c>
-      <c r="B65" s="102"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="39" t="s">
         <v>96</v>
       </c>
@@ -4031,17 +4031,17 @@
       <c r="G65" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H65" s="118"/>
+      <c r="H65" s="107"/>
     </row>
     <row r="66" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="97">
         <v>65</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66" s="91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="92" t="s">
         <v>5</v>
@@ -4050,22 +4050,22 @@
         <v>20</v>
       </c>
       <c r="F66" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G66" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="H66" s="120"/>
+        <v>207</v>
+      </c>
+      <c r="H66" s="109"/>
     </row>
     <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="47">
         <v>66</v>
       </c>
-      <c r="B67" s="101" t="s">
-        <v>207</v>
+      <c r="B67" s="114" t="s">
+        <v>206</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>5</v>
@@ -4074,22 +4074,22 @@
         <v>20</v>
       </c>
       <c r="F67" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="H67" s="108" t="s">
         <v>210</v>
-      </c>
-      <c r="H67" s="119" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48">
         <v>67</v>
       </c>
-      <c r="B68" s="102"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="33" t="s">
         <v>5</v>
@@ -4098,13 +4098,13 @@
         <v>20</v>
       </c>
       <c r="F68" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" s="106" t="s">
         <v>214</v>
-      </c>
-      <c r="G68" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="H68" s="117" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -13,11 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Набор тест-кейсов'!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
   <si>
     <t>Описание( Summary):</t>
   </si>
@@ -1076,9 +1077,6 @@
     <t>1. Заполнить поле "Логин" - LOGIN1
 2. Заполнить поле "Пароль" - password2
 3. Нажать на кнопку "ВОЙТИ"</t>
-  </si>
-  <si>
-    <t>Уведомления нет</t>
   </si>
   <si>
     <t>Не пройден                                    Причина: элемент не кликабелен.</t>
@@ -2544,7 +2542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2558,8 +2556,8 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3111,11 +3109,9 @@
         <v>166</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="105" t="s">
-        <v>217</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="H24" s="105"/>
     </row>
     <row r="25" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="47">
@@ -3137,9 +3133,7 @@
       <c r="G25" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="105" t="s">
-        <v>217</v>
-      </c>
+      <c r="H25" s="105"/>
     </row>
     <row r="26" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="46">
@@ -3161,9 +3155,7 @@
       <c r="G26" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="105" t="s">
-        <v>217</v>
-      </c>
+      <c r="H26" s="105"/>
     </row>
     <row r="27" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A27" s="47">
@@ -3230,7 +3222,7 @@
         <v>159</v>
       </c>
       <c r="H29" s="107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -3385,7 +3377,9 @@
       <c r="G36" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="H36" s="104"/>
+      <c r="H36" s="104" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48">
@@ -3408,7 +3402,7 @@
         <v>192</v>
       </c>
       <c r="H37" s="107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.2">
@@ -3964,7 +3958,7 @@
         <v>119</v>
       </c>
       <c r="H62" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="96" x14ac:dyDescent="0.2">
